--- a/similarities/split_global/harmonic_similarity_timestamps_291.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_291.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,742 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_41</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'F']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj']]</t>
+          <t>['F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:56.279931', '0:01:00.633673')]</t>
+          <t>('0:00:01.440000', '0:00:40.020000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:08.260000', '0:03:12.260000')]</t>
+          <t>('0:02:23.500000', '0:02:56.780000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-41#t=56.279931']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=188.26']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=143.5</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['B', 'E', 'B', 'E']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:29.888683', '0:00:38.514896')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:01.600000', '0:01:03.840000')]</t>
+          <t>('0:00:08.900000', '0:00:11.160000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=29.888683</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=8.9</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['A:7', 'D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:56.280000', '0:01:04.580000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:42.174263', '0:01:51.798209'), ('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:28.197000', '0:00:34.358000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=142.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=56.28</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=28.197</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>isophonics_162</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['A:7', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:00:58.560000', '0:01:02.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
+          <t>('0:00:43.926916', '0:00:50.765192')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=58.56</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=1.92']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-162#t=43.926916</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>isophonics_98</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['F/A', 'C:7/G', 'F/A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000')]</t>
+          <t>('0:00:33.340317', '0:00:56.455803')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000')]</t>
+          <t>('0:04:32.560000', '0:04:34.520000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=33.340317</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=272.56</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_103</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_68</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:02:09.380000', '0:02:15.340000')]</t>
+          <t>('0:00:00.600000', '0:00:11.320000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:21.213174', '0:00:28.074671')]</t>
+          <t>('0:00:08.740000', '0:00:24.260000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000')]</t>
+          <t>('0:00:03.044470', '0:00:11.035850')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:01:03.600000', '0:01:06.040000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_124</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['F', 'Bb', 'F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:00:15.124263', '0:00:20.058503')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-124#t=15.124263</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>schubert-winterreise_66</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_49</t>
-        </is>
-      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj/G#', 'A:min'], ['A:min', 'E:7/B', 'A:min/C']]</t>
+          <t>['D#/G', 'C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:12.280000', '0:00:19.740000'), ('0:00:23.300000', '0:00:29.360000')]</t>
+          <t>('0:01:38.560000', '0:01:51.740000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:10.760000', '0:00:16.080000'), ('0:00:00.340000', '0:00:02.340000')]</t>
+          <t>('0:01:06.040000', '0:01:11.560000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=23.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=98.56</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=10.76', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-49#t=0.34']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=66.04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>isophonics_223</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_41</t>
+          <t>isophonics_160</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['A', 'F#:min', 'D']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7', 'F']]</t>
+          <t>['Ab/7', 'F:min', 'Db:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:11.040000', '0:00:21.560000')]</t>
+          <t>('0:00:25.908231', '0:00:32.885827')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:10.130000', '0:00:14.450000')]</t>
+          <t>('0:00:57.388000', '0:01:02.385000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=11.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-223#t=25.908231</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-41#t=10.13']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=57.388</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_124</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_108</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'C']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['E:7', 'A:min', 'D:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:16.341609', '0:00:29.484104')]</t>
+          <t>('0:00:26.360000', '0:00:34.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:02:10.133000', '0:02:21.453000')]</t>
+          <t>('0:00:05.400000', '0:00:14.840000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=16.341609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-124#t=26.36</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=130.133']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>isophonics_112</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A', 'D/5', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:24.060000')]</t>
+          <t>('0:00:00.421247', '0:00:04.824512')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:06.980000', '0:00:21.920000')]</t>
+          <t>('0:01:06.520000', '0:01:10.140000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-88#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-112#t=0.421247</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-207#t=6.98']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=66.52</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:05.400000', '0:00:16.760000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
+          <t>('0:01:01.300000', '0:01:10.460000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-108#t=5.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=61.3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:min', 'Bb', 'Eb']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'Bb', 'Eb']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:28.727000', '0:00:33.763000')]</t>
+          <t>('0:02:08.760000', '0:02:14')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:23.563446', '0:00:27.290249')]</t>
+          <t>('0:02:18.800000', '0:02:25.800000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-241#t=28.727']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=128.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=23.563446']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>isophonics_183</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D', 'A:7', 'D']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:57.680000', '0:01:59.480000')]</t>
+          <t>('0:01:09.520470', '0:01:14.942329')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:33', '0:00:48.220000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=117.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-183#t=69.52047</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=33.0']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
